--- a/Bench-in-loop/Unstructured_Grid/Unstructured Grid comparison.xlsx
+++ b/Bench-in-loop/Unstructured_Grid/Unstructured Grid comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikerlan-my.sharepoint.com/personal/mrodriguez_ikerlan_es/Documents/Documentos/GitHub/MARS-data/Bench-in-loop/Unstructured_Grid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{B4B00214-C9DA-4C22-927B-65A858C88E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF1D7F2A-D552-4288-8AE9-D4571AF732F5}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{B4B00214-C9DA-4C22-927B-65A858C88E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A184F9-3550-442D-9334-34126807CBDC}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="CFD_predouble_97k" sheetId="8" r:id="rId8"/>
     <sheet name="CFD_predouble_193k" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="35">
   <si>
     <t>cudaMalloc</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>OPT traditional alloc</t>
+  </si>
+  <si>
+    <t>Normalized mean</t>
   </si>
 </sst>
 </file>
@@ -341,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -410,8 +413,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,9 +447,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -484,20 +486,30 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>KERNEL LAUNCH API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -522,12 +534,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -589,43 +598,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Backprop!$C$7,Backprop!$C$17,Backprop!$C$27,Backprop!$C$37,Backprop!$C$47)</c:f>
+              <c:f>(Backprop!$C$9,Backprop!$C$19,Backprop!$C$29,Backprop!$C$39,Backprop!$C$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.117888205567451</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1351679999999987E-2</c:v>
+                  <c:v>0.60524867315225495</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15188634669338599</c:v>
+                  <c:v>1.2883930666540055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8234724137931005E-2</c:v>
+                  <c:v>0.66363487137114974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13845706666666602</c:v>
+                  <c:v>1.174477684177204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BA6-4AB0-A987-5C0EEB7F860E}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>AllocAPI</c:v>
+            <c:v>COPY API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -650,12 +659,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -717,43 +723,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Backprop!$D$7,Backprop!$D$17,Backprop!$D$27,Backprop!$D$37,Backprop!$D$47)</c:f>
+              <c:f>(Backprop!$E$9,Backprop!$E$19,Backprop!$E$29,Backprop!$E$39,Backprop!$E$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>34.2548821713062</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154.64043519999998</c:v>
+                  <c:v>1.0942982271222386</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43512807615230403</c:v>
+                  <c:v>1.2242491254821322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0398787586206799</c:v>
+                  <c:v>1.1638683890175006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7699378666666603</c:v>
+                  <c:v>1.5255637245204272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8BA6-4AB0-A987-5C0EEB7F860E}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>COPY API</c:v>
+            <c:v>TOTAL EXEC</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -778,12 +784,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -845,167 +848,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Backprop!$E$7,Backprop!$E$17,Backprop!$E$27,Backprop!$E$37,Backprop!$E$47)</c:f>
+              <c:f>(Backprop!$K$9,Backprop!$K$19,Backprop!$K$29,Backprop!$K$39,Backprop!$K$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.53862038543897</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.68370956</c:v>
+                  <c:v>0.76188220818976304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8836546613226399</c:v>
+                  <c:v>0.97794000230675215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7907516293103398</c:v>
+                  <c:v>0.92315587997475679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3472634458333301</c:v>
+                  <c:v>0.88924566432020602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8BA6-4AB0-A987-5C0EEB7F860E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>SYNC API</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Backprop!$A$1,Backprop!$A$11,Backprop!$A$21,Backprop!$A$31,Backprop!$A$41)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>traditional alloc</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPT traditional alloc</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Zero-copy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Unified Memory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Backprop!$F$7,Backprop!$F$17,Backprop!$F$27,Backprop!$F$37,Backprop!$F$47)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.2825493104924999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3710688</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5655265090180299</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2664390344827501</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3285458666666599</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8BA6-4AB0-A987-5C0EEB7F860E}"/>
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>TOTAL EXEC</c:v>
+            <c:v>AllocAPI</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1034,12 +909,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1101,31 +973,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Backprop!$K$7,Backprop!$K$17,Backprop!$K$27,Backprop!$K$37,Backprop!$K$47)</c:f>
+              <c:f>(Backprop!$D$9,Backprop!$D$19,Backprop!$D$29,Backprop!$D$39,Backprop!$D$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>332.03180258672302</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>252.96912294399999</c:v>
+                  <c:v>4.5144056962932844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>324.707181787575</c:v>
+                  <c:v>1.2702658674353625E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>306.517110896551</c:v>
+                  <c:v>8.8742934318631284E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>295.25784086666602</c:v>
+                  <c:v>8.0862571729612157E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8BA6-4AB0-A987-5C0EEB7F860E}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1173,12 +1045,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1224,12 +1093,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1238,11 +1104,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1256,12 +1134,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1288,12 +1163,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1325,16 +1197,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1362,7 +1231,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1410,9 +1279,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -1448,13 +1318,23 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1469,7 +1349,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1494,12 +1374,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1579,12 +1456,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4759-4267-8404-5FF9F6E0CB54}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -1599,7 +1476,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1624,12 +1501,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1709,27 +1583,27 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4759-4267-8404-5FF9F6E0CB54}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Backprop!$I$4</c:f>
+              <c:f>Backprop!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>kernel 1: bpnn_adjust_weights_cuda</c:v>
+                  <c:v>kernel 2:  bpnn_layerforward_CUDA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1754,12 +1628,142 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Backprop!$A$1,Backprop!$A$11,Backprop!$A$21,Backprop!$A$31,Backprop!$A$41)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>traditional alloc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPT traditional alloc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ScatterAlloc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zero-copy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unified Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Backprop!$J$7,Backprop!$J$17,Backprop!$J$27,Backprop!$J$37,Backprop!$J$47)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.51739991434689503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67094892799999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74174563527054094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56921772413793104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51645413333333301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Backprop!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kernel 1: bpnn_adjust_weights_cuda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1845,143 +1849,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4759-4267-8404-5FF9F6E0CB54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Backprop!$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>kernel 2:  bpnn_layerforward_CUDA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Backprop!$A$1,Backprop!$A$11,Backprop!$A$21,Backprop!$A$31,Backprop!$A$41)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>traditional alloc</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPT traditional alloc</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Zero-copy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Unified Memory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Backprop!$J$7,Backprop!$J$17,Backprop!$J$27,Backprop!$J$37,Backprop!$J$47)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.51739991434689503</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.67094892799999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74174563527054094</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.56921772413793104</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51645413333333301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4759-4267-8404-5FF9F6E0CB54}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2029,12 +1897,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2080,12 +1945,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2094,11 +1956,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2112,12 +1982,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2144,12 +2011,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2181,16 +2045,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2218,7 +2079,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3340,15 +3201,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>25719</xdr:colOff>
+      <xdr:colOff>21909</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>242343</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>168780</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>398319</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>34635</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3377,16 +3238,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>493058</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>77340</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4288,15 +4149,15 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:AQ53"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -4308,83 +4169,21 @@
     <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-    </row>
-    <row r="2" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-    </row>
-    <row r="3" spans="1:43" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="28" t="s">
         <v>1</v>
@@ -4401,39 +4200,8 @@
         <v>3</v>
       </c>
       <c r="J3" s="30"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-    </row>
-    <row r="4" spans="1:43" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
@@ -4464,39 +4232,8 @@
       <c r="K4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-    </row>
-    <row r="5" spans="1:43" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -4530,39 +4267,8 @@
       <c r="K5" s="5">
         <v>332031802.58672303</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-    </row>
-    <row r="6" spans="1:43" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -4596,39 +4302,8 @@
       <c r="K6" s="8">
         <v>70340225.685955703</v>
       </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-    </row>
-    <row r="7" spans="1:43" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -4672,39 +4347,8 @@
         <f t="shared" si="0"/>
         <v>332.03180258672302</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="35"/>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="35"/>
-      <c r="AQ7" s="35"/>
-    </row>
-    <row r="8" spans="1:43" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -4748,181 +4392,68 @@
         <f t="shared" si="0"/>
         <v>70.340225685955701</v>
       </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-    </row>
-    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34"/>
-      <c r="AQ9" s="34"/>
-    </row>
-    <row r="10" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="34"/>
-    </row>
-    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B7/B$7</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9:K9" si="3">C7/C$7</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="34"/>
-    </row>
-    <row r="12" spans="1:43" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="34"/>
-      <c r="AQ12" s="34"/>
-    </row>
-    <row r="13" spans="1:43" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="28" t="s">
         <v>1</v>
@@ -4939,39 +4470,8 @@
         <v>3</v>
       </c>
       <c r="J13" s="30"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
-      <c r="AP13" s="34"/>
-      <c r="AQ13" s="34"/>
-    </row>
-    <row r="14" spans="1:43" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
@@ -5002,39 +4502,8 @@
       <c r="K14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="34"/>
-    </row>
-    <row r="15" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -5066,39 +4535,8 @@
       <c r="K15" s="5">
         <v>252969122.94400001</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="34"/>
-    </row>
-    <row r="16" spans="1:43" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -5130,39 +4568,8 @@
       <c r="K16" s="8">
         <v>4859666.5322672697</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-    </row>
-    <row r="17" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -5171,19 +4578,19 @@
         <v>0</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ref="C17:F18" si="3">C15/1000000</f>
+        <f t="shared" ref="C17:F18" si="4">C15/1000000</f>
         <v>7.1351679999999987E-2</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>154.64043519999998</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.68370956</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3710688</v>
       </c>
       <c r="G17" s="3">
@@ -5195,50 +4602,19 @@
         <v>0.65589979819999999</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" ref="I17:K17" si="4">I15/1000000</f>
+        <f t="shared" ref="I17:K17" si="5">I15/1000000</f>
         <v>3.7857525759999997</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.67094892799999994</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>252.96912294399999</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="34"/>
-      <c r="AN17" s="34"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="34"/>
-      <c r="AQ17" s="34"/>
-    </row>
-    <row r="18" spans="1:43" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -5247,19 +4623,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" ref="C18" si="5">C16/1000000</f>
+        <f t="shared" ref="C18" si="6">C16/1000000</f>
         <v>5.1970298062657301E-3</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0414834274852698</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14995376768833202</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.32663757303803298</v>
       </c>
       <c r="G18" s="6">
@@ -5271,192 +4647,79 @@
         <v>8.2468706232174296E-2</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" ref="I18:K18" si="6">I16/1000000</f>
+        <f t="shared" ref="I18:K18" si="7">I16/1000000</f>
         <v>0.53092566215790993</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4266323423076296E-2</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.8596665322672701</v>
       </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="34"/>
-    </row>
-    <row r="19" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
-      <c r="AQ19" s="34"/>
-    </row>
-    <row r="20" spans="1:43" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="34"/>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="34"/>
-      <c r="AQ20" s="34"/>
-    </row>
-    <row r="21" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1">
+        <f>B17/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:K19" si="8">C17/C$7</f>
+        <v>0.60524867315225495</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="8"/>
+        <v>4.5144056962932844</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0942982271222386</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0690183907810207</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2137770810901407</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="8"/>
+        <v>0.85276403747593499</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4398506934114028</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2967704659304538</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="8"/>
+        <v>0.76188220818976304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="34"/>
-      <c r="AO21" s="34"/>
-      <c r="AP21" s="34"/>
-      <c r="AQ21" s="34"/>
-    </row>
-    <row r="22" spans="1:43" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="34"/>
-      <c r="AM22" s="34"/>
-      <c r="AN22" s="34"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="34"/>
-      <c r="AQ22" s="34"/>
-    </row>
-    <row r="23" spans="1:43" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="28" t="s">
         <v>1</v>
@@ -5473,39 +4736,8 @@
         <v>3</v>
       </c>
       <c r="J23" s="30"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
-      <c r="AM23" s="34"/>
-      <c r="AN23" s="34"/>
-      <c r="AO23" s="34"/>
-      <c r="AP23" s="34"/>
-      <c r="AQ23" s="34"/>
-    </row>
-    <row r="24" spans="1:43" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
         <v>4</v>
       </c>
@@ -5536,39 +4768,8 @@
       <c r="K24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="34"/>
-      <c r="AL24" s="34"/>
-      <c r="AM24" s="34"/>
-      <c r="AN24" s="34"/>
-      <c r="AO24" s="34"/>
-      <c r="AP24" s="34"/>
-      <c r="AQ24" s="34"/>
-    </row>
-    <row r="25" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -5602,39 +4803,8 @@
       <c r="K25" s="5">
         <v>324707181.78757501</v>
       </c>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="34"/>
-      <c r="AL25" s="34"/>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
-      <c r="AQ25" s="34"/>
-    </row>
-    <row r="26" spans="1:43" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>14</v>
       </c>
@@ -5668,39 +4838,8 @@
       <c r="K26" s="8">
         <v>13025429.5398058</v>
       </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="34"/>
-      <c r="AM26" s="34"/>
-      <c r="AN26" s="34"/>
-      <c r="AO26" s="34"/>
-      <c r="AP26" s="34"/>
-      <c r="AQ26" s="34"/>
-    </row>
-    <row r="27" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -5709,19 +4848,19 @@
         <v>0.17986274348697298</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" ref="C27:F28" si="7">C25/1000000</f>
+        <f t="shared" ref="C27:F28" si="9">C25/1000000</f>
         <v>0.15188634669338599</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.43512807615230403</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.8836546613226399</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5655265090180299</v>
       </c>
       <c r="G27" s="3">
@@ -5733,50 +4872,19 @@
         <v>0.90319413226452905</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" ref="I27:K27" si="8">I25/1000000</f>
+        <f t="shared" ref="I27:K27" si="10">I25/1000000</f>
         <v>3.8742951503006</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.74174563527054094</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>324.707181787575</v>
       </c>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="34"/>
-      <c r="AM27" s="34"/>
-      <c r="AN27" s="34"/>
-      <c r="AO27" s="34"/>
-      <c r="AP27" s="34"/>
-      <c r="AQ27" s="34"/>
-    </row>
-    <row r="28" spans="1:43" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>16</v>
       </c>
@@ -5785,19 +4893,19 @@
         <v>1.4414610832768699E-2</v>
       </c>
       <c r="C28" s="7">
-        <f t="shared" ref="C28" si="9">C26/1000000</f>
+        <f t="shared" ref="C28" si="11">C26/1000000</f>
         <v>1.3661189088777E-2</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4073857245671102E-2</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.21071246227130702</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.34130320349983595</v>
       </c>
       <c r="G28" s="6">
@@ -5809,192 +4917,79 @@
         <v>7.9289738178076496E-2</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" ref="I28:K28" si="10">I26/1000000</f>
+        <f t="shared" ref="I28:K28" si="12">I26/1000000</f>
         <v>0.38211031659731898</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.49649046584791E-2</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13.025429539805799</v>
       </c>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="34"/>
-      <c r="AQ28" s="34"/>
-    </row>
-    <row r="29" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="34"/>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
-      <c r="AK29" s="34"/>
-      <c r="AL29" s="34"/>
-      <c r="AM29" s="34"/>
-      <c r="AN29" s="34"/>
-      <c r="AO29" s="34"/>
-      <c r="AP29" s="34"/>
-      <c r="AQ29" s="34"/>
-    </row>
-    <row r="30" spans="1:43" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="34"/>
-      <c r="AE30" s="34"/>
-      <c r="AF30" s="34"/>
-      <c r="AG30" s="34"/>
-      <c r="AH30" s="34"/>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="34"/>
-      <c r="AK30" s="34"/>
-      <c r="AL30" s="34"/>
-      <c r="AM30" s="34"/>
-      <c r="AN30" s="34"/>
-      <c r="AO30" s="34"/>
-      <c r="AP30" s="34"/>
-      <c r="AQ30" s="34"/>
-    </row>
-    <row r="31" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B27/B$7</f>
+        <v>0.92926594882845326</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29:K29" si="13">C27/C$7</f>
+        <v>1.2883930666540055</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="13"/>
+        <v>1.2702658674353625E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="13"/>
+        <v>1.2242491254821322</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="13"/>
+        <v>1.2206365059109241</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="13"/>
+        <v>1.1399473062450209</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="13"/>
+        <v>1.1742822256816994</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="13"/>
+        <v>1.4735264512544717</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="13"/>
+        <v>1.4336021609258163</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="13"/>
+        <v>0.97794000230675215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="34"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
-      <c r="AM31" s="34"/>
-      <c r="AN31" s="34"/>
-      <c r="AO31" s="34"/>
-      <c r="AP31" s="34"/>
-      <c r="AQ31" s="34"/>
-    </row>
-    <row r="32" spans="1:43" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="34"/>
-      <c r="AM32" s="34"/>
-      <c r="AN32" s="34"/>
-      <c r="AO32" s="34"/>
-      <c r="AP32" s="34"/>
-      <c r="AQ32" s="34"/>
-    </row>
-    <row r="33" spans="1:43" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
       <c r="B33" s="28" t="s">
         <v>1</v>
@@ -6011,39 +5006,8 @@
         <v>3</v>
       </c>
       <c r="J33" s="30"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="34"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="34"/>
-      <c r="AK33" s="34"/>
-      <c r="AL33" s="34"/>
-      <c r="AM33" s="34"/>
-      <c r="AN33" s="34"/>
-      <c r="AO33" s="34"/>
-      <c r="AP33" s="34"/>
-      <c r="AQ33" s="34"/>
-    </row>
-    <row r="34" spans="1:43" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
         <v>4</v>
       </c>
@@ -6074,39 +5038,8 @@
       <c r="K34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="34"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
-      <c r="AQ34" s="34"/>
-    </row>
-    <row r="35" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -6134,39 +5067,8 @@
       <c r="K35" s="5">
         <v>306517110.89655101</v>
       </c>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="34"/>
-      <c r="AD35" s="34"/>
-      <c r="AE35" s="34"/>
-      <c r="AF35" s="34"/>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
-      <c r="AK35" s="34"/>
-      <c r="AL35" s="34"/>
-      <c r="AM35" s="34"/>
-      <c r="AN35" s="34"/>
-      <c r="AO35" s="34"/>
-      <c r="AP35" s="34"/>
-      <c r="AQ35" s="34"/>
-    </row>
-    <row r="36" spans="1:43" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>14</v>
       </c>
@@ -6194,39 +5096,8 @@
       <c r="K36" s="8">
         <v>53158472.343873203</v>
       </c>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="34"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="34"/>
-      <c r="AM36" s="34"/>
-      <c r="AN36" s="34"/>
-      <c r="AO36" s="34"/>
-      <c r="AP36" s="34"/>
-      <c r="AQ36" s="34"/>
-    </row>
-    <row r="37" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -6235,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" ref="C37:F38" si="11">C35/1000000</f>
+        <f t="shared" ref="C37:F38" si="14">C35/1000000</f>
         <v>7.8234724137931005E-2</v>
       </c>
       <c r="D37" s="4">
@@ -6243,11 +5114,11 @@
         <v>3.0398787586206799</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.7907516293103398</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2664390344827501</v>
       </c>
       <c r="G37" s="3">
@@ -6259,50 +5130,19 @@
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" ref="I37:K37" si="12">I35/1000000</f>
+        <f t="shared" ref="I37:K37" si="15">I35/1000000</f>
         <v>2.7197765517241299</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.56921772413793104</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>306.517110896551</v>
       </c>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="34"/>
-      <c r="AL37" s="34"/>
-      <c r="AM37" s="34"/>
-      <c r="AN37" s="34"/>
-      <c r="AO37" s="34"/>
-      <c r="AP37" s="34"/>
-      <c r="AQ37" s="34"/>
-    </row>
-    <row r="38" spans="1:43" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>16</v>
       </c>
@@ -6311,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="7">
-        <f t="shared" ref="C38" si="13">C36/1000000</f>
+        <f t="shared" ref="C38" si="16">C36/1000000</f>
         <v>6.5482926473508798E-2</v>
       </c>
       <c r="D38" s="7">
@@ -6319,11 +5159,11 @@
         <v>1.5719295609574599</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.71844328448579597</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.86198859600714806</v>
       </c>
       <c r="G38" s="6">
@@ -6335,192 +5175,79 @@
         <v>0</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" ref="I38:K38" si="14">I36/1000000</f>
+        <f t="shared" ref="I38:K38" si="17">I36/1000000</f>
         <v>0.93181499685424496</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.153320791413395</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>53.1584723438732</v>
       </c>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="34"/>
-      <c r="AG38" s="34"/>
-      <c r="AH38" s="34"/>
-      <c r="AI38" s="34"/>
-      <c r="AJ38" s="34"/>
-      <c r="AK38" s="34"/>
-      <c r="AL38" s="34"/>
-      <c r="AM38" s="34"/>
-      <c r="AN38" s="34"/>
-      <c r="AO38" s="34"/>
-      <c r="AP38" s="34"/>
-      <c r="AQ38" s="34"/>
-    </row>
-    <row r="39" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="34"/>
-      <c r="AK39" s="34"/>
-      <c r="AL39" s="34"/>
-      <c r="AM39" s="34"/>
-      <c r="AN39" s="34"/>
-      <c r="AO39" s="34"/>
-      <c r="AP39" s="34"/>
-      <c r="AQ39" s="34"/>
-    </row>
-    <row r="40" spans="1:43" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="34"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="34"/>
-      <c r="AK40" s="34"/>
-      <c r="AL40" s="34"/>
-      <c r="AM40" s="34"/>
-      <c r="AN40" s="34"/>
-      <c r="AO40" s="34"/>
-      <c r="AP40" s="34"/>
-      <c r="AQ40" s="34"/>
-    </row>
-    <row r="41" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="1">
+        <f>B37/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" ref="C39:K39" si="18">C37/C$7</f>
+        <v>0.66363487137114974</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="18"/>
+        <v>8.8742934318631284E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="18"/>
+        <v>1.1638683890175006</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="18"/>
+        <v>0.98743886423862848</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="18"/>
+        <v>1.0344236912761366</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="18"/>
+        <v>1.1001504027236741</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="18"/>
+        <v>0.92315587997475679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="34"/>
-      <c r="AL41" s="34"/>
-      <c r="AM41" s="34"/>
-      <c r="AN41" s="34"/>
-      <c r="AO41" s="34"/>
-      <c r="AP41" s="34"/>
-      <c r="AQ41" s="34"/>
-    </row>
-    <row r="42" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="26"/>
       <c r="B42" s="27"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="34"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="34"/>
-      <c r="AK42" s="34"/>
-      <c r="AL42" s="34"/>
-      <c r="AM42" s="34"/>
-      <c r="AN42" s="34"/>
-      <c r="AO42" s="34"/>
-      <c r="AP42" s="34"/>
-      <c r="AQ42" s="34"/>
-    </row>
-    <row r="43" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15"/>
       <c r="B43" s="28" t="s">
         <v>1</v>
@@ -6537,39 +5264,8 @@
         <v>3</v>
       </c>
       <c r="J43" s="30"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="34"/>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="34"/>
-      <c r="AL43" s="34"/>
-      <c r="AM43" s="34"/>
-      <c r="AN43" s="34"/>
-      <c r="AO43" s="34"/>
-      <c r="AP43" s="34"/>
-      <c r="AQ43" s="34"/>
-    </row>
-    <row r="44" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="9" t="s">
         <v>4</v>
       </c>
@@ -6600,39 +5296,8 @@
       <c r="K44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
-      <c r="AD44" s="34"/>
-      <c r="AE44" s="34"/>
-      <c r="AF44" s="34"/>
-      <c r="AG44" s="34"/>
-      <c r="AH44" s="34"/>
-      <c r="AI44" s="34"/>
-      <c r="AJ44" s="34"/>
-      <c r="AK44" s="34"/>
-      <c r="AL44" s="34"/>
-      <c r="AM44" s="34"/>
-      <c r="AN44" s="34"/>
-      <c r="AO44" s="34"/>
-      <c r="AP44" s="34"/>
-      <c r="AQ44" s="34"/>
-    </row>
-    <row r="45" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
@@ -6660,39 +5325,8 @@
       <c r="K45" s="5">
         <v>295257840.86666602</v>
       </c>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="34"/>
-      <c r="AD45" s="34"/>
-      <c r="AE45" s="34"/>
-      <c r="AF45" s="34"/>
-      <c r="AG45" s="34"/>
-      <c r="AH45" s="34"/>
-      <c r="AI45" s="34"/>
-      <c r="AJ45" s="34"/>
-      <c r="AK45" s="34"/>
-      <c r="AL45" s="34"/>
-      <c r="AM45" s="34"/>
-      <c r="AN45" s="34"/>
-      <c r="AO45" s="34"/>
-      <c r="AP45" s="34"/>
-      <c r="AQ45" s="34"/>
-    </row>
-    <row r="46" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>14</v>
       </c>
@@ -6720,39 +5354,8 @@
       <c r="K46" s="8">
         <v>57537633.012485899</v>
       </c>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="34"/>
-      <c r="AC46" s="34"/>
-      <c r="AD46" s="34"/>
-      <c r="AE46" s="34"/>
-      <c r="AF46" s="34"/>
-      <c r="AG46" s="34"/>
-      <c r="AH46" s="34"/>
-      <c r="AI46" s="34"/>
-      <c r="AJ46" s="34"/>
-      <c r="AK46" s="34"/>
-      <c r="AL46" s="34"/>
-      <c r="AM46" s="34"/>
-      <c r="AN46" s="34"/>
-      <c r="AO46" s="34"/>
-      <c r="AP46" s="34"/>
-      <c r="AQ46" s="34"/>
-    </row>
-    <row r="47" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>15</v>
       </c>
@@ -6761,19 +5364,19 @@
         <v>0</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" ref="C47:F48" si="15">C45/1000000</f>
+        <f t="shared" ref="C47:F48" si="19">C45/1000000</f>
         <v>0.13845706666666602</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2.7699378666666603</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2.3472634458333301</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.3285458666666599</v>
       </c>
       <c r="G47" s="3">
@@ -6785,50 +5388,19 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" ref="I47:K47" si="16">I45/1000000</f>
+        <f t="shared" ref="I47:K47" si="20">I45/1000000</f>
         <v>2.6432949333333298</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.51645413333333301</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>295.25784086666602</v>
       </c>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="34"/>
-      <c r="AD47" s="34"/>
-      <c r="AE47" s="34"/>
-      <c r="AF47" s="34"/>
-      <c r="AG47" s="34"/>
-      <c r="AH47" s="34"/>
-      <c r="AI47" s="34"/>
-      <c r="AJ47" s="34"/>
-      <c r="AK47" s="34"/>
-      <c r="AL47" s="34"/>
-      <c r="AM47" s="34"/>
-      <c r="AN47" s="34"/>
-      <c r="AO47" s="34"/>
-      <c r="AP47" s="34"/>
-      <c r="AQ47" s="34"/>
-    </row>
-    <row r="48" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>16</v>
       </c>
@@ -6837,19 +5409,19 @@
         <v>0</v>
       </c>
       <c r="C48" s="7">
-        <f t="shared" ref="C48" si="17">C46/1000000</f>
+        <f t="shared" ref="C48" si="21">C46/1000000</f>
         <v>0.117565787003415</v>
       </c>
       <c r="D48" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.8721461792551</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.1119402685340201</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.57516399834486198</v>
       </c>
       <c r="G48" s="6">
@@ -6861,225 +5433,65 @@
         <v>0</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" ref="I48:K48" si="18">I46/1000000</f>
+        <f t="shared" ref="I48:K48" si="22">I46/1000000</f>
         <v>0.97050743794391503</v>
       </c>
       <c r="J48" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.13135729411053099</v>
       </c>
       <c r="K48" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>57.537633012485898</v>
       </c>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="34"/>
-      <c r="AG48" s="34"/>
-      <c r="AH48" s="34"/>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="34"/>
-      <c r="AK48" s="34"/>
-      <c r="AL48" s="34"/>
-      <c r="AM48" s="34"/>
-      <c r="AN48" s="34"/>
-      <c r="AO48" s="34"/>
-      <c r="AP48" s="34"/>
-      <c r="AQ48" s="34"/>
-    </row>
-    <row r="49" spans="13:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
-      <c r="AE49" s="34"/>
-      <c r="AF49" s="34"/>
-      <c r="AG49" s="34"/>
-      <c r="AH49" s="34"/>
-      <c r="AI49" s="34"/>
-      <c r="AJ49" s="34"/>
-      <c r="AK49" s="34"/>
-      <c r="AL49" s="34"/>
-      <c r="AM49" s="34"/>
-      <c r="AN49" s="34"/>
-      <c r="AO49" s="34"/>
-      <c r="AP49" s="34"/>
-      <c r="AQ49" s="34"/>
-    </row>
-    <row r="50" spans="13:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="34"/>
-      <c r="AD50" s="34"/>
-      <c r="AE50" s="34"/>
-      <c r="AF50" s="34"/>
-      <c r="AG50" s="34"/>
-      <c r="AH50" s="34"/>
-      <c r="AI50" s="34"/>
-      <c r="AJ50" s="34"/>
-      <c r="AK50" s="34"/>
-      <c r="AL50" s="34"/>
-      <c r="AM50" s="34"/>
-      <c r="AN50" s="34"/>
-      <c r="AO50" s="34"/>
-      <c r="AP50" s="34"/>
-      <c r="AQ50" s="34"/>
-    </row>
-    <row r="51" spans="13:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="34"/>
-      <c r="AD51" s="34"/>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="34"/>
-      <c r="AI51" s="34"/>
-      <c r="AJ51" s="34"/>
-      <c r="AK51" s="34"/>
-      <c r="AL51" s="34"/>
-      <c r="AM51" s="34"/>
-      <c r="AN51" s="34"/>
-      <c r="AO51" s="34"/>
-      <c r="AP51" s="34"/>
-      <c r="AQ51" s="34"/>
-    </row>
-    <row r="52" spans="13:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
-      <c r="AB52" s="34"/>
-      <c r="AC52" s="34"/>
-      <c r="AD52" s="34"/>
-      <c r="AE52" s="34"/>
-      <c r="AF52" s="34"/>
-      <c r="AG52" s="34"/>
-      <c r="AH52" s="34"/>
-      <c r="AI52" s="34"/>
-      <c r="AJ52" s="34"/>
-      <c r="AK52" s="34"/>
-      <c r="AL52" s="34"/>
-      <c r="AM52" s="34"/>
-      <c r="AN52" s="34"/>
-      <c r="AO52" s="34"/>
-      <c r="AP52" s="34"/>
-      <c r="AQ52" s="34"/>
-    </row>
-    <row r="53" spans="13:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="34"/>
-      <c r="AD53" s="34"/>
-      <c r="AE53" s="34"/>
-      <c r="AF53" s="34"/>
-      <c r="AG53" s="34"/>
-      <c r="AH53" s="34"/>
-      <c r="AI53" s="34"/>
-      <c r="AJ53" s="34"/>
-      <c r="AK53" s="34"/>
-      <c r="AL53" s="34"/>
-      <c r="AM53" s="34"/>
-      <c r="AN53" s="34"/>
-      <c r="AO53" s="34"/>
-      <c r="AP53" s="34"/>
-      <c r="AQ53" s="34"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="1">
+        <f>B47/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" ref="C49:K49" si="23">C47/C$7</f>
+        <v>1.174477684177204</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="23"/>
+        <v>8.0862571729612157E-2</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="23"/>
+        <v>1.5255637245204272</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0358633822480456</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0053351259083558</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="23"/>
+        <v>0.99817205030898415</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="23"/>
+        <v>0.88924566432020602</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="A41:B42"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="G43:H43"/>
@@ -7091,6 +5503,15 @@
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bench-in-loop/Unstructured_Grid/Unstructured Grid comparison.xlsx
+++ b/Bench-in-loop/Unstructured_Grid/Unstructured Grid comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikerlan-my.sharepoint.com/personal/mrodriguez_ikerlan_es/Documents/Documentos/GitHub/MARS-data/Bench-in-loop/Unstructured_Grid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{B4B00214-C9DA-4C22-927B-65A858C88E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A184F9-3550-442D-9334-34126807CBDC}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{B4B00214-C9DA-4C22-927B-65A858C88E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1789763-25CB-4BF5-8E6F-19C3C091328D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
   </bookViews>
@@ -491,9 +491,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="9.3412379481116845E-2"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.69472353499573725"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -1323,9 +1323,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
-          <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:x val="9.5360781927208468E-2"/>
+          <c:y val="2.2770712751575731E-2"/>
+          <c:w val="0.62727497747656713"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -1438,18 +1438,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Backprop!$G$7,Backprop!$G$17,Backprop!$G$27,Backprop!$G$36,Backprop!$G$46)</c:f>
+              <c:f>(Backprop!$G$9,Backprop!$G$19,Backprop!$G$29,Backprop!$G$39,Backprop!$G$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.50051107922912208</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60750887679999999</c:v>
+                  <c:v>1.2137770810901407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57055625651302599</c:v>
+                  <c:v>1.1399473062450209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,18 +1571,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Backprop!$H$7,Backprop!$H$17,Backprop!$H$27,Backprop!$H$36,Backprop!$H$46)</c:f>
+              <c:f>(Backprop!$H$9,Backprop!$H$19,Backprop!$H$29,Backprop!$H$39,Backprop!$H$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.76914570663811499</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65589979819999999</c:v>
+                  <c:v>0.85276403747593499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90319413226452905</c:v>
+                  <c:v>1.1742822256816994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1692,24 +1704,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Backprop!$J$7,Backprop!$J$17,Backprop!$J$27,Backprop!$J$37,Backprop!$J$47)</c:f>
+              <c:f>(Backprop!$J$9,Backprop!$J$19,Backprop!$J$29,Backprop!$J$39,Backprop!$J$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.51739991434689503</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67094892799999994</c:v>
+                  <c:v>1.2967704659304538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74174563527054094</c:v>
+                  <c:v>1.4336021609258163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56921772413793104</c:v>
+                  <c:v>1.1001504027236741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51645413333333301</c:v>
+                  <c:v>0.99817205030898415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,24 +1837,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Backprop!$I$7,Backprop!$I$17,Backprop!$I$27,Backprop!$I$37,Backprop!$I$47)</c:f>
+              <c:f>(Backprop!$I$9,Backprop!$I$19,Backprop!$I$29,Backprop!$I$39,Backprop!$I$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.6292674603854302</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7857525759999997</c:v>
+                  <c:v>1.4398506934114028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8742951503006</c:v>
+                  <c:v>1.4735264512544717</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7197765517241299</c:v>
+                  <c:v>1.0344236912761366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6432949333333298</c:v>
+                  <c:v>1.0053351259083558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,8 +1977,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.444834467933232E-2"/>
-              <c:y val="0.37106564582373364"/>
+              <c:x val="1.323151443258205E-2"/>
+              <c:y val="0.37106561115197145"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3201,15 +3213,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>21909</xdr:colOff>
+      <xdr:colOff>18099</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>99058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>398319</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>34635</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>431799</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>151239</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3238,16 +3250,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>588818</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25110</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>155863</xdr:rowOff>
+      <xdr:rowOff>155862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>450273</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>17317</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>436905</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>11655</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4152,7 +4164,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+      <selection activeCell="R65" sqref="R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6166,7 +6178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B45D5E-7DCE-4051-88B1-048165BF0DAB}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M13" sqref="M13:P13"/>
     </sheetView>
   </sheetViews>
